--- a/Excel/BusinessPartner.xlsx
+++ b/Excel/BusinessPartner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="363">
   <si>
     <t>Username</t>
   </si>
@@ -1050,9 +1050,6 @@
     <t>CityStateNameindexxx</t>
   </si>
   <si>
-    <t>oct</t>
-  </si>
-  <si>
     <t>ACCC</t>
   </si>
   <si>
@@ -1095,13 +1092,19 @@
     <t>WCPP</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>WCPPP</t>
+  </si>
+  <si>
+    <t>ACCCA</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -3511,7 +3514,7 @@
         <v>136</v>
       </c>
       <c r="CP2" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="CQ2" s="13" t="s">
         <v>244</v>
@@ -3562,7 +3565,7 @@
         <v>136</v>
       </c>
       <c r="DG2" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="DH2" s="13" t="s">
         <v>244</v>
@@ -3613,7 +3616,7 @@
         <v>136</v>
       </c>
       <c r="DX2" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="DY2" s="13" t="s">
         <v>244</v>
@@ -3658,7 +3661,7 @@
         <v>136</v>
       </c>
       <c r="EM2" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="EN2" s="13" t="s">
         <v>244</v>
@@ -3709,8 +3712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="DH1" workbookViewId="0">
+      <selection activeCell="DR2" sqref="DR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4131,25 +4134,25 @@
         <v>330</v>
       </c>
       <c r="DG1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="DH1" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="DI1" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="DI1" s="21" t="s">
-        <v>349</v>
-      </c>
       <c r="DJ1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="DK1" s="24" t="s">
         <v>79</v>
       </c>
       <c r="DL1" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="DM1" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:117">
@@ -4163,22 +4166,22 @@
         <v>228</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>241</v>
@@ -4187,7 +4190,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>242</v>
@@ -4208,19 +4211,19 @@
         <v>218</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>136</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>136</v>
@@ -4232,7 +4235,7 @@
         <v>42</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AB2" s="5" t="s">
         <v>336</v>
@@ -4253,19 +4256,19 @@
         <v>6</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="AJ2" s="10" t="s">
         <v>136</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
       <c r="AM2" s="10" t="s">
         <v>136</v>
@@ -4277,7 +4280,7 @@
         <v>45</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AQ2" s="5" t="s">
         <v>335</v>
@@ -4289,19 +4292,19 @@
         <v>6</v>
       </c>
       <c r="AT2" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AU2" s="8" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="AV2" s="10" t="s">
         <v>136</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AX2" s="8" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="AY2" s="10" t="s">
         <v>136</v>
@@ -4313,7 +4316,7 @@
         <v>48</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="BC2" s="5" t="s">
         <v>335</v>
@@ -4331,19 +4334,19 @@
         <v>6</v>
       </c>
       <c r="BH2" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BI2" s="8" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="BJ2" s="10" t="s">
         <v>136</v>
       </c>
       <c r="BK2" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="BL2" s="8" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="BM2" s="10" t="s">
         <v>136</v>
@@ -4355,25 +4358,25 @@
         <v>334</v>
       </c>
       <c r="BP2" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="BQ2" s="5" t="s">
         <v>337</v>
       </c>
       <c r="BR2" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BS2" s="13" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="BT2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="BU2" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="BV2" s="14" t="s">
-        <v>244</v>
+        <v>362</v>
+      </c>
+      <c r="BV2" s="13" t="s">
+        <v>361</v>
       </c>
       <c r="BW2" s="14" t="s">
         <v>136</v>
@@ -4385,7 +4388,7 @@
         <v>295</v>
       </c>
       <c r="BZ2" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="CA2" s="13" t="s">
         <v>332</v>
@@ -4397,19 +4400,19 @@
         <v>218</v>
       </c>
       <c r="CD2" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="CE2" s="13" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="CF2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="CG2" s="14" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="CH2" s="13" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
       <c r="CI2" s="14" t="s">
         <v>136</v>
@@ -4421,7 +4424,7 @@
         <v>319</v>
       </c>
       <c r="CL2" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="CM2" s="5" t="s">
         <v>335</v>
@@ -4433,19 +4436,19 @@
         <v>6</v>
       </c>
       <c r="CP2" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="CQ2" s="13" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="CR2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="CS2" s="14" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="CT2" s="13" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="CU2" s="14" t="s">
         <v>136</v>
@@ -4457,25 +4460,25 @@
         <v>331</v>
       </c>
       <c r="CX2" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="CY2" s="5" t="s">
         <v>335</v>
       </c>
       <c r="CZ2" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="DA2" s="13" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="DB2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="DC2" s="14" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="DD2" s="13" t="s">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="DE2" s="14" t="s">
         <v>136</v>
@@ -4490,19 +4493,19 @@
         <v>6</v>
       </c>
       <c r="DI2" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="DJ2" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="DK2" s="5" t="s">
         <v>80</v>
       </c>
       <c r="DL2" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DM2" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BusinessPartner.xlsx
+++ b/Excel/BusinessPartner.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16215" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16215" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="BusinessPartner" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="362">
   <si>
     <t>Username</t>
   </si>
@@ -439,9 +439,6 @@
   </si>
   <si>
     <t>AgreementValidTo3</t>
-  </si>
-  <si>
-    <t>Sep</t>
   </si>
   <si>
     <t>A</t>
@@ -1561,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EX2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="EB1" workbookViewId="0">
+      <selection activeCell="EK10" sqref="EK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1949,7 +1946,7 @@
         <v>119</v>
       </c>
       <c r="CG1" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="CH1" s="11" t="s">
         <v>126</v>
@@ -1985,178 +1982,178 @@
         <v>132</v>
       </c>
       <c r="CS1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="CT1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="CT1" s="11" t="s">
+      <c r="CU1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="CV1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="CU1" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="CV1" s="11" t="s">
+      <c r="CW1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="CW1" s="11" t="s">
+      <c r="CX1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="CX1" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="CY1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="CZ1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DB1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DC1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="DC1" s="7" t="s">
+      <c r="DD1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="DE1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="DF1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DG1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="DE1" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="DF1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="DG1" s="16" t="s">
+      <c r="DH1" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="DH1" s="16" t="s">
+      <c r="DI1" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="DI1" s="16" t="s">
+      <c r="DJ1" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="DJ1" s="16" t="s">
+      <c r="DK1" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="DK1" s="16" t="s">
+      <c r="DL1" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="DL1" s="16" t="s">
-        <v>167</v>
-      </c>
       <c r="DM1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="DN1" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="DN1" s="16" t="s">
+      <c r="DO1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="DO1" s="16" t="s">
+      <c r="DP1" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="DP1" s="16" t="s">
+      <c r="DQ1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="DQ1" s="16" t="s">
+      <c r="DR1" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="DR1" s="16" t="s">
+      <c r="DS1" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="DS1" s="16" t="s">
+      <c r="DT1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="DT1" s="16" t="s">
+      <c r="DU1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="DU1" s="16" t="s">
+      <c r="DV1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="DV1" s="16" t="s">
+      <c r="DW1" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="DW1" s="16" t="s">
-        <v>180</v>
-      </c>
       <c r="DX1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DY1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="DY1" s="16" t="s">
+      <c r="DZ1" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="DZ1" s="16" t="s">
+      <c r="EA1" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="EA1" s="16" t="s">
+      <c r="EB1" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="EB1" s="16" t="s">
+      <c r="EC1" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="EC1" s="16" t="s">
+      <c r="ED1" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="ED1" s="16" t="s">
+      <c r="EE1" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="EE1" s="16" t="s">
+      <c r="EF1" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="EF1" s="16" t="s">
+      <c r="EG1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="EG1" s="16" t="s">
+      <c r="EH1" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="EH1" s="16" t="s">
+      <c r="EI1" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="EI1" s="16" t="s">
+      <c r="EJ1" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="EJ1" s="16" t="s">
+      <c r="EK1" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="EK1" s="16" t="s">
+      <c r="EL1" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="EL1" s="16" t="s">
-        <v>196</v>
-      </c>
       <c r="EM1" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="EN1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="EN1" s="16" t="s">
+      <c r="EO1" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="EO1" s="16" t="s">
+      <c r="EP1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="EP1" s="16" t="s">
-        <v>202</v>
-      </c>
       <c r="EQ1" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="ER1" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="ER1" s="17" t="s">
+      <c r="ES1" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="ES1" s="17" t="s">
+      <c r="ET1" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="ET1" s="17" t="s">
-        <v>208</v>
-      </c>
       <c r="EU1" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="EV1" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="EV1" s="17" t="s">
+      <c r="EW1" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="EW1" s="17" t="s">
+      <c r="EX1" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="EX1" s="17" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:154">
@@ -2422,25 +2419,25 @@
         <v>134</v>
       </c>
       <c r="CJ2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CK2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="CL2" s="14" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
       <c r="CM2" s="13" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="CN2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="CO2" s="14" t="s">
-        <v>151</v>
+        <v>361</v>
       </c>
       <c r="CP2" s="13" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="CQ2" s="14" t="s">
         <v>136</v>
@@ -2449,7 +2446,7 @@
         <v>6</v>
       </c>
       <c r="CS2" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CT2" s="14" t="s">
         <v>6</v>
@@ -2458,58 +2455,58 @@
         <v>6</v>
       </c>
       <c r="CV2" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="CW2" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="CX2" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="CY2" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CZ2" s="10" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
       <c r="DA2" s="13" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="DB2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="DC2" s="14" t="s">
-        <v>151</v>
+        <v>361</v>
       </c>
       <c r="DD2" s="13" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="DE2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="DF2" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DG2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="DH2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="DI2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="DJ2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="DK2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="DL2" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="DJ2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="DK2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="DL2" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="DM2" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="DN2" s="14" t="s">
         <v>6</v>
@@ -2521,19 +2518,19 @@
         <v>6</v>
       </c>
       <c r="DQ2" s="14" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
       <c r="DR2" s="13" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="DS2" s="10" t="s">
         <v>136</v>
       </c>
       <c r="DT2" s="14" t="s">
-        <v>151</v>
+        <v>361</v>
       </c>
       <c r="DU2" s="13" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="DV2" s="14" t="s">
         <v>136</v>
@@ -2542,22 +2539,22 @@
         <v>6</v>
       </c>
       <c r="DX2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="DY2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="DZ2" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="DY2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="DZ2" s="13" t="s">
-        <v>198</v>
-      </c>
       <c r="EA2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="EB2" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="EC2" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="ED2" s="14" t="s">
         <v>6</v>
@@ -2566,19 +2563,19 @@
         <v>11</v>
       </c>
       <c r="EF2" s="14" t="s">
-        <v>243</v>
+        <v>357</v>
       </c>
       <c r="EG2" s="13" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="EH2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="EI2" s="14" t="s">
-        <v>151</v>
+        <v>361</v>
       </c>
       <c r="EJ2" s="13" t="s">
-        <v>141</v>
+        <v>360</v>
       </c>
       <c r="EK2" s="14" t="s">
         <v>136</v>
@@ -2587,37 +2584,37 @@
         <v>6</v>
       </c>
       <c r="EM2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="EN2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="EO2" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="EN2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="EO2" s="13" t="s">
-        <v>204</v>
-      </c>
       <c r="EP2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="EQ2" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="ER2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="ES2" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="ET2" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="EU2" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="EV2" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="EV2" s="10" t="s">
-        <v>218</v>
-      </c>
       <c r="EW2" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="EX2" s="10" t="s">
         <v>6</v>
@@ -2795,7 +2792,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>15</v>
@@ -3026,7 +3023,7 @@
         <v>119</v>
       </c>
       <c r="CH1" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="CI1" s="11" t="s">
         <v>126</v>
@@ -3062,175 +3059,175 @@
         <v>132</v>
       </c>
       <c r="CT1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="CU1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="CU1" s="11" t="s">
+      <c r="CV1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="CW1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="CV1" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="CW1" s="11" t="s">
+      <c r="CX1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="CX1" s="11" t="s">
+      <c r="CY1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="CY1" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="CZ1" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="DA1" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="DB1" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="DB1" s="18" t="s">
-        <v>223</v>
-      </c>
       <c r="DC1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="DD1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DE1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="DF1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="DG1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="DG1" s="7" t="s">
+      <c r="DH1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="DI1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="DJ1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="DK1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="DI1" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="DJ1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="DK1" s="16" t="s">
+      <c r="DL1" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="DL1" s="16" t="s">
+      <c r="DM1" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="DM1" s="16" t="s">
+      <c r="DN1" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="DN1" s="16" t="s">
+      <c r="DO1" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="DO1" s="16" t="s">
+      <c r="DP1" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="DP1" s="16" t="s">
-        <v>167</v>
-      </c>
       <c r="DQ1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="DR1" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="DR1" s="16" t="s">
+      <c r="DS1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="DS1" s="16" t="s">
+      <c r="DT1" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="DT1" s="16" t="s">
+      <c r="DU1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="DU1" s="16" t="s">
+      <c r="DV1" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="DV1" s="16" t="s">
+      <c r="DW1" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="DW1" s="16" t="s">
+      <c r="DX1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="DX1" s="16" t="s">
+      <c r="DY1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="DY1" s="16" t="s">
+      <c r="DZ1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="DZ1" s="16" t="s">
+      <c r="EA1" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="EA1" s="16" t="s">
-        <v>180</v>
-      </c>
       <c r="EB1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="EC1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="EC1" s="16" t="s">
+      <c r="ED1" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="ED1" s="16" t="s">
+      <c r="EE1" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="EE1" s="16" t="s">
+      <c r="EF1" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="EF1" s="16" t="s">
+      <c r="EG1" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="EG1" s="16" t="s">
+      <c r="EH1" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="EH1" s="16" t="s">
+      <c r="EI1" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="EI1" s="16" t="s">
+      <c r="EJ1" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="EJ1" s="16" t="s">
+      <c r="EK1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="EK1" s="16" t="s">
+      <c r="EL1" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="EL1" s="16" t="s">
+      <c r="EM1" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="EM1" s="16" t="s">
+      <c r="EN1" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="EN1" s="16" t="s">
+      <c r="EO1" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="EO1" s="16" t="s">
+      <c r="EP1" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="EP1" s="16" t="s">
-        <v>196</v>
-      </c>
       <c r="EQ1" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="ER1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="ER1" s="16" t="s">
+      <c r="ES1" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="ES1" s="16" t="s">
+      <c r="ET1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="ET1" s="16" t="s">
-        <v>202</v>
-      </c>
       <c r="EU1" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="EV1" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="EV1" s="17" t="s">
-        <v>206</v>
-      </c>
       <c r="EW1" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="EX1" s="16" t="s">
         <v>226</v>
-      </c>
-      <c r="EX1" s="16" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:154">
@@ -3244,10 +3241,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -3499,25 +3496,25 @@
         <v>134</v>
       </c>
       <c r="CK2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CL2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="CM2" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="CN2" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="CO2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="CP2" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CQ2" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="CR2" s="14" t="s">
         <v>136</v>
@@ -3526,7 +3523,7 @@
         <v>6</v>
       </c>
       <c r="CT2" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CU2" s="14" t="s">
         <v>6</v>
@@ -3535,67 +3532,67 @@
         <v>6</v>
       </c>
       <c r="CW2" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="CX2" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="CY2" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="CZ2" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="DA2" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="DA2" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="DB2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="DC2" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DD2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="DE2" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="DE2" s="13" t="s">
-        <v>244</v>
       </c>
       <c r="DF2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="DG2" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="DH2" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="DI2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="DJ2" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DK2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="DL2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="DM2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="DN2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="DO2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="DP2" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="DN2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="DO2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="DP2" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="DQ2" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="DR2" s="14" t="s">
         <v>6</v>
@@ -3607,19 +3604,19 @@
         <v>6</v>
       </c>
       <c r="DU2" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="DV2" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="DV2" s="13" t="s">
-        <v>244</v>
       </c>
       <c r="DW2" s="10" t="s">
         <v>136</v>
       </c>
       <c r="DX2" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="DY2" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="DZ2" s="14" t="s">
         <v>136</v>
@@ -3628,22 +3625,22 @@
         <v>6</v>
       </c>
       <c r="EB2" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EC2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="ED2" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="EE2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="EF2" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="EG2" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="EH2" s="14" t="s">
         <v>6</v>
@@ -3652,19 +3649,19 @@
         <v>11</v>
       </c>
       <c r="EJ2" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="EK2" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="EK2" s="13" t="s">
-        <v>244</v>
       </c>
       <c r="EL2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="EM2" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="EN2" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="EO2" s="14" t="s">
         <v>136</v>
@@ -3673,25 +3670,25 @@
         <v>6</v>
       </c>
       <c r="EQ2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="ER2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="ES2" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="ER2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="ES2" s="13" t="s">
-        <v>204</v>
-      </c>
       <c r="ET2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="EU2" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EV2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="EW2" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EX2" s="14" t="s">
         <v>6</v>
@@ -3712,8 +3709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DH1" workbookViewId="0">
-      <selection activeCell="DR2" sqref="DR2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3813,22 +3810,22 @@
         <v>4</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>232</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>233</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>42</v>
@@ -3837,322 +3834,322 @@
         <v>44</v>
       </c>
       <c r="L1" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="R1" s="20" t="s">
-        <v>240</v>
-      </c>
       <c r="S1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="V1" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="W1" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y1" s="20" t="s">
         <v>106</v>
       </c>
       <c r="Z1" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA1" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="AN1" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="AO1" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AP1" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AT1" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="AV1" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW1" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="AU1" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="AW1" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="AY1" s="11" t="s">
-        <v>271</v>
-      </c>
       <c r="AZ1" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BA1" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="BB1" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BD1" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BE1" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="BF1" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="BE1" s="18" t="s">
+      <c r="BG1" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BH1" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="BG1" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BI1" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BK1" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BL1" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BM1" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BN1" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="BO1" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="BN1" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="BO1" s="11" t="s">
+      <c r="BP1" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="BQ1" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="BP1" s="11" t="s">
+      <c r="BR1" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="BS1" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="BT1" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="BU1" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="BV1" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="BW1" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="BX1" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="BY1" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="BQ1" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="BR1" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="BS1" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="BT1" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="BU1" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="BV1" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="BW1" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="BX1" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="BY1" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="BZ1" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="CA1" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CB1" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CC1" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CD1" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CE1" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CF1" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CG1" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CH1" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CI1" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CK1" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CL1" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CM1" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CN1" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CO1" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CP1" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CR1" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CS1" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CT1" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CU1" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CV1" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="CV1" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="CW1" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="CX1" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CY1" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DB1" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DC1" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="DC1" s="7" t="s">
+      <c r="DD1" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DE1" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="DF1" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="DF1" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="DG1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DH1" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="DI1" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="DI1" s="21" t="s">
-        <v>348</v>
-      </c>
       <c r="DJ1" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="DK1" s="24" t="s">
         <v>79</v>
       </c>
       <c r="DL1" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="DM1" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:117">
@@ -4163,67 +4160,67 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>136</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>136</v>
@@ -4235,40 +4232,40 @@
         <v>42</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AC2" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE2" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="AD2" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>339</v>
-      </c>
       <c r="AF2" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AJ2" s="10" t="s">
         <v>136</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AM2" s="10" t="s">
         <v>136</v>
@@ -4280,31 +4277,31 @@
         <v>45</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AS2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="AT2" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AU2" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AV2" s="10" t="s">
         <v>136</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AX2" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AY2" s="10" t="s">
         <v>136</v>
@@ -4316,37 +4313,37 @@
         <v>48</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BC2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BD2" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF2" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="BE2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF2" s="8" t="s">
-        <v>341</v>
-      </c>
       <c r="BG2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="BH2" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BI2" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BJ2" s="10" t="s">
         <v>136</v>
       </c>
       <c r="BK2" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BL2" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BM2" s="10" t="s">
         <v>136</v>
@@ -4355,28 +4352,28 @@
         <v>6</v>
       </c>
       <c r="BO2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BP2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BQ2" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BR2" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BS2" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BT2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="BU2" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BV2" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BW2" s="14" t="s">
         <v>136</v>
@@ -4385,34 +4382,34 @@
         <v>6</v>
       </c>
       <c r="BY2" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BZ2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="CA2" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="CB2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="CC2" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="CD2" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="CE2" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="CF2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="CG2" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="CH2" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="CI2" s="14" t="s">
         <v>136</v>
@@ -4421,34 +4418,34 @@
         <v>6</v>
       </c>
       <c r="CK2" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="CL2" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="CM2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="CN2" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="CL2" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="CM2" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="CN2" s="13" t="s">
-        <v>320</v>
-      </c>
       <c r="CO2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="CP2" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="CQ2" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="CR2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="CS2" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="CT2" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="CU2" s="14" t="s">
         <v>136</v>
@@ -4457,28 +4454,28 @@
         <v>6</v>
       </c>
       <c r="CW2" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="CX2" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="CY2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="CZ2" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="DA2" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="DB2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="DC2" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="DD2" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="DE2" s="14" t="s">
         <v>136</v>
@@ -4493,19 +4490,19 @@
         <v>6</v>
       </c>
       <c r="DI2" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="DJ2" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="DK2" s="5" t="s">
         <v>80</v>
       </c>
       <c r="DL2" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="DM2" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BusinessPartner.xlsx
+++ b/Excel/BusinessPartner.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16215" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16215" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BusinessPartner" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="362">
   <si>
     <t>Username</t>
   </si>
@@ -663,9 +663,6 @@
     <t>Center Province</t>
   </si>
   <si>
-    <t>12011</t>
-  </si>
-  <si>
     <t>DBA</t>
   </si>
   <si>
@@ -747,9 +744,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>Oct</t>
-  </si>
-  <si>
     <t>Leftsidemenucountry</t>
   </si>
   <si>
@@ -1047,12 +1041,6 @@
     <t>CityStateNameindexxx</t>
   </si>
   <si>
-    <t>ACCC</t>
-  </si>
-  <si>
-    <t>HSAPP</t>
-  </si>
-  <si>
     <t>LeftsideBussinesspartner</t>
   </si>
   <si>
@@ -1083,21 +1071,9 @@
     <t>dnata1</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>WCPP</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>WCPPP</t>
-  </si>
-  <si>
-    <t>ACCCA</t>
-  </si>
-  <si>
     <t>Nov</t>
   </si>
   <si>
@@ -1111,6 +1087,21 @@
   </si>
   <si>
     <t>82014</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>12012</t>
+  </si>
+  <si>
+    <t>Cmkalsopp</t>
+  </si>
+  <si>
+    <t>WCPPPP</t>
+  </si>
+  <si>
+    <t>WCPHC</t>
   </si>
 </sst>
 </file>
@@ -1567,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2179,7 +2170,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -2434,19 +2425,19 @@
         <v>6</v>
       </c>
       <c r="CL2" s="14" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="CM2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="CN2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="CO2" s="14" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="CP2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="CQ2" s="14" t="s">
         <v>136</v>
@@ -2476,19 +2467,19 @@
         <v>158</v>
       </c>
       <c r="CZ2" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="DA2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="DB2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="DC2" s="14" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="DD2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="DE2" s="14" t="s">
         <v>136</v>
@@ -2527,19 +2518,19 @@
         <v>6</v>
       </c>
       <c r="DQ2" s="14" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="DR2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="DS2" s="10" t="s">
         <v>136</v>
       </c>
       <c r="DT2" s="14" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="DU2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="DV2" s="14" t="s">
         <v>136</v>
@@ -2572,19 +2563,19 @@
         <v>11</v>
       </c>
       <c r="EF2" s="14" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="EG2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="EH2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="EI2" s="14" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="EJ2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="EK2" s="14" t="s">
         <v>136</v>
@@ -2617,10 +2608,10 @@
         <v>208</v>
       </c>
       <c r="EU2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="EV2" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="EV2" s="10" t="s">
-        <v>217</v>
       </c>
       <c r="EW2" s="8" t="s">
         <v>213</v>
@@ -2644,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EX2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="EP1" workbookViewId="0">
+      <selection activeCell="EW11" sqref="EW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2801,7 +2792,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>15</v>
@@ -3086,13 +3077,13 @@
         <v>147</v>
       </c>
       <c r="CZ1" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="DA1" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="DB1" s="18" t="s">
         <v>221</v>
-      </c>
-      <c r="DB1" s="18" t="s">
-        <v>222</v>
       </c>
       <c r="DC1" s="7" t="s">
         <v>151</v>
@@ -3233,10 +3224,10 @@
         <v>205</v>
       </c>
       <c r="EW1" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="EX1" s="16" t="s">
         <v>225</v>
-      </c>
-      <c r="EX1" s="16" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:154">
@@ -3250,10 +3241,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>215</v>
+        <v>358</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -3376,7 +3367,7 @@
         <v>6</v>
       </c>
       <c r="AT2" s="8" t="s">
-        <v>70</v>
+        <v>359</v>
       </c>
       <c r="AU2" s="8" t="s">
         <v>65</v>
@@ -3511,19 +3502,19 @@
         <v>6</v>
       </c>
       <c r="CM2" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="CN2" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="CO2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="CP2" s="14" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="CQ2" s="13" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="CR2" s="14" t="s">
         <v>136</v>
@@ -3550,10 +3541,10 @@
         <v>150</v>
       </c>
       <c r="CZ2" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="DA2" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="DA2" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="DB2" s="14" t="s">
         <v>6</v>
@@ -3562,10 +3553,10 @@
         <v>158</v>
       </c>
       <c r="DD2" s="10" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="DE2" s="13" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="DF2" s="14" t="s">
         <v>136</v>
@@ -3574,7 +3565,7 @@
         <v>355</v>
       </c>
       <c r="DH2" s="13" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="DI2" s="14" t="s">
         <v>136</v>
@@ -3613,10 +3604,10 @@
         <v>6</v>
       </c>
       <c r="DU2" s="14" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="DV2" s="13" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="DW2" s="10" t="s">
         <v>136</v>
@@ -3625,7 +3616,7 @@
         <v>355</v>
       </c>
       <c r="DY2" s="13" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="DZ2" s="14" t="s">
         <v>136</v>
@@ -3658,10 +3649,10 @@
         <v>11</v>
       </c>
       <c r="EJ2" s="14" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="EK2" s="13" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="EL2" s="14" t="s">
         <v>136</v>
@@ -3670,7 +3661,7 @@
         <v>355</v>
       </c>
       <c r="EN2" s="13" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="EO2" s="14" t="s">
         <v>136</v>
@@ -3718,9 +3709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DM2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3819,22 +3808,22 @@
         <v>4</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>163</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>231</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>232</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>42</v>
@@ -3843,25 +3832,25 @@
         <v>44</v>
       </c>
       <c r="L1" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>238</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>239</v>
       </c>
       <c r="S1" s="20" t="s">
         <v>152</v>
@@ -3885,280 +3874,280 @@
         <v>106</v>
       </c>
       <c r="Z1" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="AM1" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AO1" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AT1" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AU1" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="AV1" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="AW1" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="AT1" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="AW1" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="AX1" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="AY1" s="11" t="s">
-        <v>270</v>
       </c>
       <c r="AZ1" s="11" t="s">
         <v>179</v>
       </c>
       <c r="BA1" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="BC1" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BD1" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BE1" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="BF1" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BG1" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="BH1" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="BE1" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BI1" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="BG1" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BK1" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BL1" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BM1" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="BL1" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="BM1" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="BN1" s="7" t="s">
         <v>195</v>
       </c>
       <c r="BO1" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="BP1" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="BQ1" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="BR1" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="BP1" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="BQ1" s="11" t="s">
+      <c r="BS1" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="BR1" s="11" t="s">
+      <c r="BT1" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="BS1" s="11" t="s">
+      <c r="BU1" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="BT1" s="11" t="s">
+      <c r="BV1" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="BU1" s="11" t="s">
+      <c r="BW1" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="BV1" s="11" t="s">
+      <c r="BX1" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="BW1" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="BX1" s="11" t="s">
+      <c r="BY1" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="CA1" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="CB1" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CC1" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CD1" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CE1" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CF1" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CG1" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CH1" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CI1" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CK1" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CL1" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CM1" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CN1" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CO1" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CP1" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CR1" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CS1" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CT1" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CU1" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CV1" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="CU1" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="CV1" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="CW1" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="CX1" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="CY1" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DB1" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DC1" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DD1" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="DC1" s="7" t="s">
+      <c r="DE1" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DF1" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="DE1" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="DF1" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="DG1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="DH1" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="DI1" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="DH1" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="DI1" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="DK1" s="24" t="s">
         <v>79</v>
       </c>
       <c r="DL1" s="17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="DM1" s="25" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:117">
@@ -4169,67 +4158,67 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>143</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>357</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>136</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>136</v>
@@ -4241,22 +4230,22 @@
         <v>42</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AB2" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>337</v>
-      </c>
       <c r="AD2" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG2" s="10" t="s">
         <v>6</v>
@@ -4265,16 +4254,16 @@
         <v>357</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AJ2" s="10" t="s">
         <v>136</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AM2" s="10" t="s">
         <v>136</v>
@@ -4286,13 +4275,13 @@
         <v>45</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AS2" s="14" t="s">
         <v>6</v>
@@ -4301,16 +4290,16 @@
         <v>357</v>
       </c>
       <c r="AU2" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AV2" s="10" t="s">
         <v>136</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AX2" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AY2" s="10" t="s">
         <v>136</v>
@@ -4322,19 +4311,19 @@
         <v>48</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="BC2" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="BD2" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="BE2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="BF2" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="BG2" s="10" t="s">
         <v>6</v>
@@ -4343,16 +4332,16 @@
         <v>357</v>
       </c>
       <c r="BI2" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="BJ2" s="10" t="s">
         <v>136</v>
       </c>
       <c r="BK2" s="10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="BL2" s="8" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="BM2" s="10" t="s">
         <v>136</v>
@@ -4361,28 +4350,28 @@
         <v>6</v>
       </c>
       <c r="BO2" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BP2" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="BQ2" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BR2" s="14" t="s">
         <v>357</v>
       </c>
       <c r="BS2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="BT2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="BU2" s="14" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="BV2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="BW2" s="14" t="s">
         <v>136</v>
@@ -4391,34 +4380,34 @@
         <v>6</v>
       </c>
       <c r="BY2" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BZ2" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="CA2" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CB2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="CC2" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="CD2" s="14" t="s">
         <v>357</v>
       </c>
       <c r="CE2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="CF2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="CG2" s="14" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="CH2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="CI2" s="14" t="s">
         <v>136</v>
@@ -4427,16 +4416,16 @@
         <v>6</v>
       </c>
       <c r="CK2" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="CL2" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="CM2" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="CN2" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CO2" s="14" t="s">
         <v>6</v>
@@ -4445,16 +4434,16 @@
         <v>357</v>
       </c>
       <c r="CQ2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="CR2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="CS2" s="14" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="CT2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="CU2" s="14" t="s">
         <v>136</v>
@@ -4463,28 +4452,28 @@
         <v>6</v>
       </c>
       <c r="CW2" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="CX2" s="5" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="CY2" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="CZ2" s="14" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="DA2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="DB2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="DC2" s="14" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="DD2" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="DE2" s="14" t="s">
         <v>136</v>
@@ -4499,19 +4488,19 @@
         <v>6</v>
       </c>
       <c r="DI2" s="22" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="DJ2" s="23" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="DK2" s="5" t="s">
         <v>80</v>
       </c>
       <c r="DL2" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="DM2" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
